--- a/original_data.xlsx
+++ b/original_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akihi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFCBD39-36F4-4424-87EC-8603B749BA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D85FA-26B6-4FF2-BBEE-00CAE9195E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A5B83BA-5F93-4A47-8DCD-25F2BF6695E7}"/>
+    <workbookView xWindow="780" yWindow="540" windowWidth="17280" windowHeight="8976" xr2:uid="{8A5B83BA-5F93-4A47-8DCD-25F2BF6695E7}"/>
   </bookViews>
   <sheets>
     <sheet name="入契肺炎" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>患者番号</t>
   </si>
@@ -266,6 +266,10 @@
     <rPh sb="2" eb="3">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -692,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D34FBA-9043-4096-B53B-E8245CE66543}">
   <dimension ref="A1:Y452"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="Q5" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -988,7 +992,9 @@
       <c r="L6" s="5">
         <v>17</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6">
+        <v>999</v>
+      </c>
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1219,38 +1225,38 @@
       <c r="N9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="5">
-        <v>2</v>
-      </c>
-      <c r="P9" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5">
-        <v>1</v>
-      </c>
-      <c r="X9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>1</v>
+      <c r="O9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
@@ -13271,7 +13277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6798608-FFF3-4E5F-A7A7-D8371C4387EE}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/original_data.xlsx
+++ b/original_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akihi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D85FA-26B6-4FF2-BBEE-00CAE9195E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F166D-D651-4490-9B1D-F9F1692B3FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="540" windowWidth="17280" windowHeight="8976" xr2:uid="{8A5B83BA-5F93-4A47-8DCD-25F2BF6695E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8A5B83BA-5F93-4A47-8DCD-25F2BF6695E7}"/>
   </bookViews>
   <sheets>
     <sheet name="入契肺炎" sheetId="2" r:id="rId1"/>
@@ -348,7 +348,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +377,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D34FBA-9043-4096-B53B-E8245CE66543}">
   <dimension ref="A1:Y452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q5" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:Y9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13277,8 +13280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6798608-FFF3-4E5F-A7A7-D8371C4387EE}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13301,13 +13304,13 @@
       <c r="A2" s="3">
         <v>466</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>110</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>14</v>
       </c>
     </row>
@@ -13315,13 +13318,13 @@
       <c r="A3" s="3">
         <v>110527</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>75</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>22</v>
       </c>
     </row>
@@ -13329,13 +13332,13 @@
       <c r="A4" s="3">
         <v>110527</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>98</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>26</v>
       </c>
     </row>
@@ -13343,13 +13346,13 @@
       <c r="A5" s="3">
         <v>153238</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>121</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>18</v>
       </c>
     </row>
@@ -13357,13 +13360,13 @@
       <c r="A6" s="3">
         <v>156763</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>97</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>28</v>
       </c>
     </row>
@@ -13371,13 +13374,13 @@
       <c r="A7" s="3">
         <v>164579</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>87</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>32</v>
       </c>
     </row>
@@ -13385,13 +13388,13 @@
       <c r="A8" s="3">
         <v>171957</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>140</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <v>14</v>
       </c>
     </row>
